--- a/USASwimming/Times For Declan Keane.xlsx
+++ b/USASwimming/Times For Declan Keane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
   <si>
     <t>Event</t>
   </si>
@@ -60,15 +60,36 @@
     <t>"Slower than B"</t>
   </si>
   <si>
+    <t>2019 CT RYWC Candlewood Cup</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>11/9/2019</t>
+  </si>
+  <si>
+    <t>100 FR</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
+  </si>
+  <si>
+    <t>50 BK</t>
+  </si>
+  <si>
+    <t>50 BR</t>
+  </si>
+  <si>
+    <t>100 BR</t>
+  </si>
+  <si>
     <t>2019 CT Oak Summer Invite</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>6/22/2019</t>
   </si>
   <si>
@@ -114,9 +135,6 @@
     <t>6/24/2018</t>
   </si>
   <si>
-    <t>100 FR</t>
-  </si>
-  <si>
     <t>7/13/2019</t>
   </si>
   <si>
@@ -126,9 +144,6 @@
     <t>5/18/2019</t>
   </si>
   <si>
-    <t>50 BK</t>
-  </si>
-  <si>
     <t>6/15/2019</t>
   </si>
   <si>
@@ -136,12 +151,6 @@
   </si>
   <si>
     <t>100 BK</t>
-  </si>
-  <si>
-    <t>50 BR</t>
-  </si>
-  <si>
-    <t>100 BR</t>
   </si>
 </sst>
 </file>
@@ -502,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -561,16 +570,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>33.50059675925926</v>
+        <v>33.500452546296295</v>
       </c>
       <c r="C2" s="2">
-        <v>36557.500596759259</v>
+        <v>36557.500452546294</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -590,25 +599,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>33.500601620370368</v>
-      </c>
-      <c r="C3" s="2">
-        <v>36557.50060162037</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>33.501084259259258</v>
+      </c>
+      <c r="C3" s="3">
+        <v>33.501084259259258</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -622,25 +631,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>33.500634606481484</v>
+        <v>33.500580324074072</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.500634606484</v>
+        <v>36557.500580324071</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -649,30 +658,30 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500646064814816</v>
+        <v>33.50064861111111</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500646064815</v>
+        <v>36557.500648611109</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -681,30 +690,30 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>33.500666550925928</v>
-      </c>
-      <c r="C6" s="2">
-        <v>36557.500666550928</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>33.501423148148149</v>
+      </c>
+      <c r="C6" s="3">
+        <v>33.501423148148149</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -713,30 +722,30 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
-        <v>33.500710185185184</v>
-      </c>
-      <c r="C7" s="3">
-        <v>33.500710185185184</v>
+      <c r="B7" s="2">
+        <v>33.50059675925926</v>
+      </c>
+      <c r="C7" s="2">
+        <v>36557.500596759259</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -745,30 +754,30 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>33.500829629629628</v>
-      </c>
-      <c r="C8" s="3">
-        <v>33.500829629629628</v>
+      <c r="B8" s="2">
+        <v>33.500601620370368</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36557.50060162037</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -777,21 +786,21 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
-        <v>33.50096099537037</v>
-      </c>
-      <c r="C9" s="3">
-        <v>33.50096099537037</v>
+      <c r="B9" s="2">
+        <v>33.500634606481484</v>
+      </c>
+      <c r="C9" s="2">
+        <v>36557.500634606484</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -800,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -809,18 +818,18 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3">
-        <v>33.501335185185184</v>
-      </c>
-      <c r="C10" s="3">
-        <v>33.501335185185184</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>33.500646064814816</v>
+      </c>
+      <c r="C10" s="2">
+        <v>36557.500646064815</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -832,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -841,50 +850,50 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>33.500666550925928</v>
+      </c>
+      <c r="C11" s="2">
+        <v>36557.500666550928</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="3">
-        <v>33.501385416666665</v>
-      </c>
-      <c r="C11" s="3">
-        <v>33.501385416666665</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>33.501445717592595</v>
+        <v>33.500710185185184</v>
       </c>
       <c r="C12" s="3">
-        <v>33.501445717592595</v>
+        <v>33.500710185185184</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -896,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -910,16 +919,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>33.501526388888891</v>
+        <v>33.500829629629628</v>
       </c>
       <c r="C13" s="3">
-        <v>33.501526388888891</v>
+        <v>33.500829629629628</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -928,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -937,21 +946,21 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>33.501561805555554</v>
+        <v>33.50096099537037</v>
       </c>
       <c r="C14" s="3">
-        <v>33.501561805555554</v>
+        <v>33.50096099537037</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -960,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -969,30 +978,30 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2">
-        <v>33.500669212962961</v>
-      </c>
-      <c r="C15" s="2">
-        <v>36557.500669212961</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>33.501335185185184</v>
+      </c>
+      <c r="C15" s="3">
+        <v>33.501335185185184</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1001,30 +1010,30 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2">
-        <v>33.500685995370368</v>
-      </c>
-      <c r="C16" s="2">
-        <v>36557.500685995372</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>33.501385416666665</v>
+      </c>
+      <c r="C16" s="3">
+        <v>33.501385416666665</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1033,30 +1042,30 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>33.500689583333333</v>
-      </c>
-      <c r="C17" s="2">
-        <v>36557.500689583336</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>33.501445717592595</v>
+      </c>
+      <c r="C17" s="3">
+        <v>33.501445717592595</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1065,30 +1074,30 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>33.500701736111111</v>
+        <v>33.501526388888891</v>
       </c>
       <c r="C18" s="3">
-        <v>33.500701736111111</v>
+        <v>33.501526388888891</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1097,18 +1106,18 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>33.500738310185184</v>
+        <v>33.501561805555554</v>
       </c>
       <c r="C19" s="3">
-        <v>33.500738310185184</v>
+        <v>33.501561805555554</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1120,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1129,62 +1138,62 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3">
-        <v>33.500761458333336</v>
-      </c>
-      <c r="C20" s="3">
-        <v>33.500761458333336</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>33.500669212962961</v>
+      </c>
+      <c r="C20" s="2">
+        <v>36557.500669212961</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
         <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3">
-        <v>33.500886805555552</v>
-      </c>
-      <c r="C21" s="3">
-        <v>33.500886805555552</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>33.500685995370368</v>
+      </c>
+      <c r="C21" s="2">
+        <v>36557.500685995372</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1193,30 +1202,30 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3">
-        <v>33.501081134259259</v>
-      </c>
-      <c r="C22" s="3">
-        <v>33.501081134259259</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>33.500689583333333</v>
+      </c>
+      <c r="C22" s="2">
+        <v>36557.500689583336</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1225,30 +1234,30 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
-        <v>33.501675810185183</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="C23" s="3">
-        <v>33.501675810185183</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1257,30 +1266,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500778356481483</v>
+        <v>33.500738310185184</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500778356481483</v>
+        <v>33.500738310185184</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
       <c r="E24">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1289,30 +1298,30 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3">
-        <v>33.500794675925924</v>
+        <v>33.500761458333336</v>
       </c>
       <c r="C25" s="3">
-        <v>33.500794675925924</v>
+        <v>33.500761458333336</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1321,30 +1330,30 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3">
-        <v>33.500798958333334</v>
+        <v>33.500886805555552</v>
       </c>
       <c r="C26" s="3">
-        <v>33.500798958333334</v>
+        <v>33.500886805555552</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1353,21 +1362,21 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3">
-        <v>33.500832754629627</v>
+        <v>33.501081134259259</v>
       </c>
       <c r="C27" s="3">
-        <v>33.500832754629627</v>
+        <v>33.501081134259259</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1376,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1385,18 +1394,18 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3">
-        <v>33.500835069444442</v>
+        <v>33.501675810185183</v>
       </c>
       <c r="C28" s="3">
-        <v>33.500835069444442</v>
+        <v>33.501675810185183</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -1408,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1417,30 +1426,30 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3">
-        <v>33.500861574074072</v>
+        <v>33.500778356481483</v>
       </c>
       <c r="C29" s="3">
-        <v>33.500861574074072</v>
+        <v>33.500778356481483</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1449,30 +1458,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3">
-        <v>33.501679976851854</v>
+        <v>33.500794675925924</v>
       </c>
       <c r="C30" s="3">
-        <v>33.501679976851854</v>
+        <v>33.500794675925924</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1481,39 +1490,199 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3">
+        <v>33.500798958333334</v>
+      </c>
+      <c r="C31" s="3">
+        <v>33.500798958333334</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3">
+        <v>33.500832754629627</v>
+      </c>
+      <c r="C32" s="3">
+        <v>33.500832754629627</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="3">
+        <v>33.500835069444442</v>
+      </c>
+      <c r="C33" s="3">
+        <v>33.500835069444442</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3">
+        <v>33.500861574074072</v>
+      </c>
+      <c r="C34" s="3">
+        <v>33.500861574074072</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3">
+        <v>33.501679976851854</v>
+      </c>
+      <c r="C35" s="3">
+        <v>33.501679976851854</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="3">
         <v>33.501843055555554</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C36" s="3">
         <v>33.501843055555554</v>
       </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>23</v>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Declan Keane.xlsx
+++ b/USASwimming/Times For Declan Keane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="44">
   <si>
     <t>Event</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>11/9/2019</t>
+  </si>
+  <si>
+    <t>41.19r</t>
   </si>
   <si>
     <t>100 FR</t>
@@ -511,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -599,19 +602,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
-        <v>33.501084259259258</v>
-      </c>
-      <c r="C3" s="3">
-        <v>33.501084259259258</v>
+      <c r="C3" s="2">
+        <v>36557.50047673611</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -626,24 +629,24 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2">
-        <v>33.500580324074072</v>
-      </c>
-      <c r="C4" s="2">
-        <v>36557.500580324071</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>33.501084259259258</v>
+      </c>
+      <c r="C4" s="3">
+        <v>33.501084259259258</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -658,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -666,16 +669,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>33.50064861111111</v>
+        <v>33.500580324074072</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500648611109</v>
+        <v>36557.500580324071</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -690,24 +693,24 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
-        <v>33.501423148148149</v>
-      </c>
-      <c r="C6" s="3">
-        <v>33.501423148148149</v>
+      <c r="B6" s="2">
+        <v>33.50064861111111</v>
+      </c>
+      <c r="C6" s="2">
+        <v>36557.500648611109</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -722,30 +725,30 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>33.50059675925926</v>
-      </c>
-      <c r="C7" s="2">
-        <v>36557.500596759259</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>33.501423148148149</v>
+      </c>
+      <c r="C7" s="3">
+        <v>33.501423148148149</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -754,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -762,31 +765,31 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.500601620370368</v>
+        <v>33.50059675925926</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.50060162037</v>
+        <v>36557.500596759259</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -794,31 +797,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500634606481484</v>
+        <v>33.500601620370368</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500634606484</v>
+        <v>36557.50060162037</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500646064814816</v>
+        <v>33.500634606481484</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500646064815</v>
+        <v>36557.500634606484</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -841,16 +844,16 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -858,10 +861,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500666550925928</v>
+        <v>33.500646064814816</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500666550928</v>
+        <v>36557.500646064815</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -873,27 +876,27 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>33.500710185185184</v>
-      </c>
-      <c r="C12" s="3">
-        <v>33.500710185185184</v>
+      <c r="B12" s="2">
+        <v>33.500666550925928</v>
+      </c>
+      <c r="C12" s="2">
+        <v>36557.500666550928</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -905,16 +908,16 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
         <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,13 +925,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>33.500829629629628</v>
+        <v>33.500710185185184</v>
       </c>
       <c r="C13" s="3">
-        <v>33.500829629629628</v>
+        <v>33.500710185185184</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -937,16 +940,16 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
         <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -954,10 +957,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>33.50096099537037</v>
+        <v>33.500829629629628</v>
       </c>
       <c r="C14" s="3">
-        <v>33.50096099537037</v>
+        <v>33.500829629629628</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -969,30 +972,30 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
         <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>33.501335185185184</v>
+        <v>33.50096099537037</v>
       </c>
       <c r="C15" s="3">
-        <v>33.501335185185184</v>
+        <v>33.50096099537037</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1001,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1010,18 +1013,18 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>33.501385416666665</v>
+        <v>33.501335185185184</v>
       </c>
       <c r="C16" s="3">
-        <v>33.501385416666665</v>
+        <v>33.501335185185184</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1033,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1042,18 +1045,18 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>33.501445717592595</v>
+        <v>33.501385416666665</v>
       </c>
       <c r="C17" s="3">
-        <v>33.501445717592595</v>
+        <v>33.501385416666665</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1065,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1079,13 +1082,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>33.501526388888891</v>
+        <v>33.501445717592595</v>
       </c>
       <c r="C18" s="3">
-        <v>33.501526388888891</v>
+        <v>33.501445717592595</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1097,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1106,18 +1109,18 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>33.501561805555554</v>
+        <v>33.501526388888891</v>
       </c>
       <c r="C19" s="3">
-        <v>33.501561805555554</v>
+        <v>33.501526388888891</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1129,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1138,30 +1141,30 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>33.500669212962961</v>
-      </c>
-      <c r="C20" s="2">
-        <v>36557.500669212961</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>33.501561805555554</v>
+      </c>
+      <c r="C20" s="3">
+        <v>33.501561805555554</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1170,62 +1173,62 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>33.500685995370368</v>
+        <v>33.500669212962961</v>
       </c>
       <c r="C21" s="2">
-        <v>36557.500685995372</v>
+        <v>36557.500669212961</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
         <v>23</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>33.500689583333333</v>
+        <v>33.500685995370368</v>
       </c>
       <c r="C22" s="2">
-        <v>36557.500689583336</v>
+        <v>36557.500685995372</v>
       </c>
       <c r="D22">
         <v>7</v>
       </c>
       <c r="E22">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1234,30 +1237,30 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3">
-        <v>33.500701736111111</v>
-      </c>
-      <c r="C23" s="3">
-        <v>33.500701736111111</v>
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>33.500689583333333</v>
+      </c>
+      <c r="C23" s="2">
+        <v>36557.500689583336</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1266,30 +1269,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500738310185184</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500738310185184</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1298,18 +1301,18 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>33.500761458333336</v>
+        <v>33.500738310185184</v>
       </c>
       <c r="C25" s="3">
-        <v>33.500761458333336</v>
+        <v>33.500738310185184</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -1321,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1330,21 +1333,21 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3">
-        <v>33.500886805555552</v>
+        <v>33.500761458333336</v>
       </c>
       <c r="C26" s="3">
-        <v>33.500886805555552</v>
+        <v>33.500761458333336</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1362,18 +1365,18 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3">
-        <v>33.501081134259259</v>
+        <v>33.500886805555552</v>
       </c>
       <c r="C27" s="3">
-        <v>33.501081134259259</v>
+        <v>33.500886805555552</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -1385,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1394,21 +1397,21 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3">
-        <v>33.501675810185183</v>
+        <v>33.501081134259259</v>
       </c>
       <c r="C28" s="3">
-        <v>33.501675810185183</v>
+        <v>33.501081134259259</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1417,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1426,30 +1429,30 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3">
-        <v>33.500778356481483</v>
+        <v>33.501675810185183</v>
       </c>
       <c r="C29" s="3">
-        <v>33.500778356481483</v>
+        <v>33.501675810185183</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1458,30 +1461,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3">
-        <v>33.500794675925924</v>
+        <v>33.500778356481483</v>
       </c>
       <c r="C30" s="3">
-        <v>33.500794675925924</v>
+        <v>33.500778356481483</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1490,30 +1493,30 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3">
+        <v>33.500794675925924</v>
+      </c>
+      <c r="C31" s="3">
+        <v>33.500794675925924</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
         <v>19</v>
       </c>
-      <c r="B31" s="3">
-        <v>33.500798958333334</v>
-      </c>
-      <c r="C31" s="3">
-        <v>33.500798958333334</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>14</v>
-      </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1522,30 +1525,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3">
-        <v>33.500832754629627</v>
+        <v>33.500798958333334</v>
       </c>
       <c r="C32" s="3">
-        <v>33.500832754629627</v>
+        <v>33.500798958333334</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1554,18 +1557,18 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3">
-        <v>33.500835069444442</v>
+        <v>33.500832754629627</v>
       </c>
       <c r="C33" s="3">
-        <v>33.500835069444442</v>
+        <v>33.500832754629627</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -1577,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1586,18 +1589,18 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3">
-        <v>33.500861574074072</v>
+        <v>33.500835069444442</v>
       </c>
       <c r="C34" s="3">
-        <v>33.500861574074072</v>
+        <v>33.500835069444442</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -1609,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1618,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1626,22 +1629,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3">
-        <v>33.501679976851854</v>
+        <v>33.500861574074072</v>
       </c>
       <c r="C35" s="3">
-        <v>33.501679976851854</v>
+        <v>33.500861574074072</v>
       </c>
       <c r="D35">
         <v>7</v>
       </c>
       <c r="E35">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1650,39 +1653,71 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3">
+        <v>33.501679976851854</v>
+      </c>
+      <c r="C36" s="3">
+        <v>33.501679976851854</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
         <v>33.501843055555554</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C37" s="3">
         <v>33.501843055555554</v>
       </c>
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
         <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Declan Keane.xlsx
+++ b/USASwimming/Times For Declan Keane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="49">
   <si>
     <t>Event</t>
   </si>
@@ -72,12 +72,21 @@
     <t>11/9/2019</t>
   </si>
   <si>
+    <t>2020 CT OAK Centennial Center Invit</t>
+  </si>
+  <si>
+    <t>1/5/2020</t>
+  </si>
+  <si>
     <t>41.19r</t>
   </si>
   <si>
     <t>100 FR</t>
   </si>
   <si>
+    <t>1/4/2020</t>
+  </si>
+  <si>
     <t>11/10/2019</t>
   </si>
   <si>
@@ -87,7 +96,13 @@
     <t>50 BR</t>
   </si>
   <si>
+    <t>"B"</t>
+  </si>
+  <si>
     <t>100 BR</t>
+  </si>
+  <si>
+    <t>100 IM</t>
   </si>
   <si>
     <t>2019 CT Oak Summer Invite</t>
@@ -514,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -604,23 +619,23 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3" s="2">
+        <v>33.50045752314815</v>
       </c>
       <c r="C3" s="2">
-        <v>36557.50047673611</v>
+        <v>36557.500457523151</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -629,24 +644,24 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
-        <v>33.501084259259258</v>
-      </c>
-      <c r="C4" s="3">
-        <v>33.501084259259258</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>36557.50047673611</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -661,30 +676,30 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
-        <v>33.500580324074072</v>
-      </c>
-      <c r="C5" s="2">
-        <v>36557.500580324071</v>
+      <c r="B5" s="3">
+        <v>33.501031018518518</v>
+      </c>
+      <c r="C5" s="3">
+        <v>33.501031018518518</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -693,24 +708,24 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
-        <v>33.50064861111111</v>
-      </c>
-      <c r="C6" s="2">
-        <v>36557.500648611109</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>33.501084259259258</v>
+      </c>
+      <c r="C6" s="3">
+        <v>33.501084259259258</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -725,30 +740,30 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3">
-        <v>33.501423148148149</v>
-      </c>
-      <c r="C7" s="3">
-        <v>33.501423148148149</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>33.500569675925924</v>
+      </c>
+      <c r="C7" s="2">
+        <v>36557.500569675925</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -757,30 +772,30 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>33.50059675925926</v>
+        <v>33.500580324074072</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.500596759259</v>
+        <v>36557.500580324071</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -789,30 +804,30 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500601620370368</v>
+        <v>33.500587615740741</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.50060162037</v>
+        <v>36557.500587615737</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -821,30 +836,30 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500634606481484</v>
+        <v>33.50064861111111</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500634606484</v>
+        <v>36557.500648611109</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -853,30 +868,30 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>33.500646064814816</v>
-      </c>
-      <c r="C11" s="2">
-        <v>36557.500646064815</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <v>33.501357407407404</v>
+      </c>
+      <c r="C11" s="3">
+        <v>33.501357407407404</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -885,30 +900,30 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>33.500666550925928</v>
-      </c>
-      <c r="C12" s="2">
-        <v>36557.500666550928</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>33.501423148148149</v>
+      </c>
+      <c r="C12" s="3">
+        <v>33.501423148148149</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -917,30 +932,30 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
-        <v>33.500710185185184</v>
+        <v>33.501151620370372</v>
       </c>
       <c r="C13" s="3">
-        <v>33.500710185185184</v>
+        <v>33.501151620370372</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -949,30 +964,30 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
-        <v>33.500829629629628</v>
-      </c>
-      <c r="C14" s="3">
-        <v>33.500829629629628</v>
+      <c r="B14" s="2">
+        <v>33.50059675925926</v>
+      </c>
+      <c r="C14" s="2">
+        <v>36557.500596759259</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -981,30 +996,30 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
-        <v>33.50096099537037</v>
-      </c>
-      <c r="C15" s="3">
-        <v>33.50096099537037</v>
+      <c r="B15" s="2">
+        <v>33.500601620370368</v>
+      </c>
+      <c r="C15" s="2">
+        <v>36557.50060162037</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1013,18 +1028,18 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3">
-        <v>33.501335185185184</v>
-      </c>
-      <c r="C16" s="3">
-        <v>33.501335185185184</v>
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>33.500634606481484</v>
+      </c>
+      <c r="C16" s="2">
+        <v>36557.500634606484</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1036,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1045,18 +1060,18 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <v>33.501385416666665</v>
-      </c>
-      <c r="C17" s="3">
-        <v>33.501385416666665</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>33.500646064814816</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36557.500646064815</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1068,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1077,18 +1092,18 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>33.501445717592595</v>
-      </c>
-      <c r="C18" s="3">
-        <v>33.501445717592595</v>
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>33.500666550925928</v>
+      </c>
+      <c r="C18" s="2">
+        <v>36557.500666550928</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1100,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1109,18 +1124,18 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3">
-        <v>33.501526388888891</v>
+        <v>33.500710185185184</v>
       </c>
       <c r="C19" s="3">
-        <v>33.501526388888891</v>
+        <v>33.500710185185184</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1132,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1141,21 +1156,21 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3">
-        <v>33.501561805555554</v>
+        <v>33.500829629629628</v>
       </c>
       <c r="C20" s="3">
-        <v>33.501561805555554</v>
+        <v>33.500829629629628</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1164,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1178,25 +1193,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>33.500669212962961</v>
-      </c>
-      <c r="C21" s="2">
-        <v>36557.500669212961</v>
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>33.50096099537037</v>
+      </c>
+      <c r="C21" s="3">
+        <v>33.50096099537037</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1205,30 +1220,30 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
-        <v>33.500685995370368</v>
-      </c>
-      <c r="C22" s="2">
-        <v>36557.500685995372</v>
+      <c r="B22" s="3">
+        <v>33.501335185185184</v>
+      </c>
+      <c r="C22" s="3">
+        <v>33.501335185185184</v>
       </c>
       <c r="D22">
         <v>7</v>
       </c>
       <c r="E22">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1237,30 +1252,30 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2">
-        <v>33.500689583333333</v>
-      </c>
-      <c r="C23" s="2">
-        <v>36557.500689583336</v>
+      <c r="B23" s="3">
+        <v>33.501385416666665</v>
+      </c>
+      <c r="C23" s="3">
+        <v>33.501385416666665</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1269,7 +1284,7 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,22 +1292,22 @@
         <v>19</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500701736111111</v>
+        <v>33.501445717592595</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500701736111111</v>
+        <v>33.501445717592595</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1301,7 +1316,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,10 +1324,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>33.500738310185184</v>
+        <v>33.501526388888891</v>
       </c>
       <c r="C25" s="3">
-        <v>33.500738310185184</v>
+        <v>33.501526388888891</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -1324,16 +1339,16 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
         <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1341,10 +1356,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="3">
-        <v>33.500761458333336</v>
+        <v>33.501561805555554</v>
       </c>
       <c r="C26" s="3">
-        <v>33.500761458333336</v>
+        <v>33.501561805555554</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -1356,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1365,30 +1380,30 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3">
-        <v>33.500886805555552</v>
-      </c>
-      <c r="C27" s="3">
-        <v>33.500886805555552</v>
+        <v>22</v>
+      </c>
+      <c r="B27" s="2">
+        <v>33.500669212962961</v>
+      </c>
+      <c r="C27" s="2">
+        <v>36557.500669212961</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1397,30 +1412,30 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3">
-        <v>33.501081134259259</v>
-      </c>
-      <c r="C28" s="3">
-        <v>33.501081134259259</v>
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <v>33.500685995370368</v>
+      </c>
+      <c r="C28" s="2">
+        <v>36557.500685995372</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1429,62 +1444,62 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2">
+        <v>33.500689583333333</v>
+      </c>
+      <c r="C29" s="2">
+        <v>36557.500689583336</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" s="3">
-        <v>33.501675810185183</v>
-      </c>
-      <c r="C29" s="3">
-        <v>33.501675810185183</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3">
-        <v>33.500778356481483</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="C30" s="3">
-        <v>33.500778356481483</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1493,30 +1508,30 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3">
-        <v>33.500794675925924</v>
+        <v>33.500738310185184</v>
       </c>
       <c r="C31" s="3">
-        <v>33.500794675925924</v>
+        <v>33.500738310185184</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1525,30 +1540,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3">
-        <v>33.500798958333334</v>
+        <v>33.500761458333336</v>
       </c>
       <c r="C32" s="3">
-        <v>33.500798958333334</v>
+        <v>33.500761458333336</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1557,21 +1572,21 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B33" s="3">
-        <v>33.500832754629627</v>
+        <v>33.500886805555552</v>
       </c>
       <c r="C33" s="3">
-        <v>33.500832754629627</v>
+        <v>33.500886805555552</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1580,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1589,21 +1604,21 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3">
-        <v>33.500835069444442</v>
+        <v>33.501081134259259</v>
       </c>
       <c r="C34" s="3">
-        <v>33.500835069444442</v>
+        <v>33.501081134259259</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1612,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1621,18 +1636,18 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3">
-        <v>33.500861574074072</v>
+        <v>33.501675810185183</v>
       </c>
       <c r="C35" s="3">
-        <v>33.500861574074072</v>
+        <v>33.501675810185183</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -1644,7 +1659,7 @@
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1653,71 +1668,263 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B36" s="3">
-        <v>33.501679976851854</v>
+        <v>33.500778356481483</v>
       </c>
       <c r="C36" s="3">
-        <v>33.501679976851854</v>
+        <v>33.500778356481483</v>
       </c>
       <c r="D36">
         <v>7</v>
       </c>
       <c r="E36">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
         <v>28</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B37" s="3">
+        <v>33.500794675925924</v>
+      </c>
+      <c r="C37" s="3">
+        <v>33.500794675925924</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="3">
+        <v>33.500798958333334</v>
+      </c>
+      <c r="C38" s="3">
+        <v>33.500798958333334</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3">
+        <v>33.500832754629627</v>
+      </c>
+      <c r="C39" s="3">
+        <v>33.500832754629627</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="3">
+        <v>33.500835069444442</v>
+      </c>
+      <c r="C40" s="3">
+        <v>33.500835069444442</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="3">
+        <v>33.500861574074072</v>
+      </c>
+      <c r="C41" s="3">
+        <v>33.500861574074072</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="3">
+        <v>33.501679976851854</v>
+      </c>
+      <c r="C42" s="3">
+        <v>33.501679976851854</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="3">
         <v>33.501843055555554</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C43" s="3">
         <v>33.501843055555554</v>
       </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" t="s">
-        <v>31</v>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
